--- a/files/cfe.xlsx
+++ b/files/cfe.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="6">
   <si>
     <t>fecha</t>
   </si>
@@ -22,10 +22,13 @@
     <t>e-Factura</t>
   </si>
   <si>
+    <t>e-Resguardo</t>
+  </si>
+  <si>
     <t>Nota de Crédito de e-Factura</t>
   </si>
   <si>
-    <t>e-Resguardo</t>
+    <t>Nota de Débito de e-Factura</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B204"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" style="1" customWidth="1"/>
@@ -427,7 +430,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -435,15 +438,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -451,25 +454,1601 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44928.125</v>
+        <v>45049.125</v>
       </c>
       <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45049.125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45050.125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45051.125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45052.125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45052.125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45052.125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45052.125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45053.125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45053.125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45054.125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45054.125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45054.125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45055.125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45056.125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45057.125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45058.125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45058.125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45058.125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45059.125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45059.125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45059.125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45059.125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45060.125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45060.125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45061.125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45061.125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45061.125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45061.125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45062.125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45062.125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45062.125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45062.125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45062.125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45063.125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45063.125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45063.125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45063.125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45063.125</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45064.125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45065.125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45065.125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45065.125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45065.125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45066.125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45067.125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45067.125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45067.125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45067.125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45068.125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45068.125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45068.125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45068.125</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45069.125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45070.125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45071.125</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45072.125</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45073.125</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45073.125</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45073.125</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45073.125</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45073.125</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45074.125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45074.125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45074.125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45075.125</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45076.125</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45077.125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45078.125</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45079.125</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45079.125</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45079.125</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45080.125</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45080.125</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45081.125</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45081.125</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45082.125</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45082.125</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45082.125</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45082.125</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45082.125</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45083.125</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45083.125</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45083.125</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45083.125</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45084.125</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45084.125</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45084.125</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45085.125</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45085.125</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45085.125</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45085.125</v>
+      </c>
+      <c r="B201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45086.125</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45086.125</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45086.125</v>
+      </c>
+      <c r="B204" t="s">
         <v>2</v>
       </c>
     </row>
